--- a/Output/ModelAggregates/SecondaryModels.xlsx
+++ b/Output/ModelAggregates/SecondaryModels.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +415,16 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>p_adjust_fdr_full</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>p_adjust_fdr_interaction</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>p_adjust_fdr</t>
         </is>
       </c>
@@ -591,7 +601,10 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.728</v>
+        <v>0.364</v>
+      </c>
+      <c r="N5">
+        <v>0.364</v>
       </c>
     </row>
     <row r="6">
@@ -611,19 +624,19 @@
         </is>
       </c>
       <c r="D6">
-        <v>5.767</v>
+        <v>5.669</v>
       </c>
       <c r="E6">
-        <v>0.712</v>
+        <v>0.79</v>
       </c>
       <c r="F6">
-        <v>36.951</v>
+        <v>37.183</v>
       </c>
       <c r="G6">
-        <v>4.325</v>
+        <v>4.069</v>
       </c>
       <c r="H6">
-        <v>7.209</v>
+        <v>7.268</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -654,22 +667,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>1.766</v>
+        <v>1.575</v>
       </c>
       <c r="E7">
-        <v>1.295</v>
+        <v>1.423</v>
       </c>
       <c r="F7">
-        <v>31.78</v>
+        <v>31.324</v>
       </c>
       <c r="G7">
-        <v>-0.873</v>
+        <v>-1.326</v>
       </c>
       <c r="H7">
-        <v>4.405</v>
+        <v>4.475</v>
       </c>
       <c r="I7">
-        <v>0.182</v>
+        <v>0.277</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -693,26 +706,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>m_1_2</t>
+          <t>sexM</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.012</v>
+        <v>-0.38</v>
       </c>
       <c r="E8">
-        <v>0.125</v>
+        <v>1.386</v>
       </c>
       <c r="F8">
-        <v>37.027</v>
+        <v>34.768</v>
       </c>
       <c r="G8">
-        <v>-0.241</v>
+        <v>-3.195</v>
       </c>
       <c r="H8">
-        <v>0.266</v>
+        <v>2.434</v>
       </c>
       <c r="I8">
-        <v>0.923</v>
+        <v>0.785</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -736,26 +749,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sexM</t>
+          <t>ifn_1_netto</t>
         </is>
       </c>
       <c r="D9">
-        <v>-0.381</v>
+        <v>0.057</v>
       </c>
       <c r="E9">
-        <v>1.393</v>
+        <v>0.238</v>
       </c>
       <c r="F9">
-        <v>34.488</v>
+        <v>37.184</v>
       </c>
       <c r="G9">
-        <v>-3.209</v>
+        <v>-0.424</v>
       </c>
       <c r="H9">
-        <v>2.448</v>
+        <v>0.539</v>
       </c>
       <c r="I9">
-        <v>0.786</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -783,22 +796,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>-1.443</v>
+        <v>-1.634</v>
       </c>
       <c r="E10">
-        <v>1.642</v>
+        <v>1.832</v>
       </c>
       <c r="F10">
-        <v>31.295</v>
+        <v>31.036</v>
       </c>
       <c r="G10">
-        <v>-4.789</v>
+        <v>-5.37</v>
       </c>
       <c r="H10">
-        <v>1.904</v>
+        <v>2.102</v>
       </c>
       <c r="I10">
-        <v>0.386</v>
+        <v>0.379</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -822,26 +835,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>timepointfollowup:treatcontrol:m_1_2</t>
+          <t>timepointfollowup:ifn_1_netto</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.003</v>
+        <v>0.077</v>
       </c>
       <c r="E11">
-        <v>0.22</v>
+        <v>0.419</v>
       </c>
       <c r="F11">
-        <v>29.854</v>
+        <v>30.721</v>
       </c>
       <c r="G11">
-        <v>-0.446</v>
+        <v>-0.778</v>
       </c>
       <c r="H11">
-        <v>0.452</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I11">
-        <v>0.988</v>
+        <v>0.855</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -865,26 +878,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>timepointfollowup:treatexercise:m_1_2</t>
+          <t>timepointfollowup:treatexercise:ifn_1_netto</t>
         </is>
       </c>
       <c r="D12">
-        <v>-0.108</v>
+        <v>-0.041</v>
       </c>
       <c r="E12">
-        <v>0.218</v>
+        <v>0.584</v>
       </c>
       <c r="F12">
-        <v>30.485</v>
+        <v>30.838</v>
       </c>
       <c r="G12">
-        <v>-0.554</v>
+        <v>-1.233</v>
       </c>
       <c r="H12">
-        <v>0.338</v>
+        <v>1.151</v>
       </c>
       <c r="I12">
-        <v>0.624</v>
+        <v>0.945</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -894,8 +907,11 @@
       <c r="K12" t="b">
         <v>1</v>
       </c>
-      <c r="L12">
-        <v>0.906</v>
+      <c r="M12">
+        <v>0.945</v>
+      </c>
+      <c r="N12">
+        <v>0.945</v>
       </c>
     </row>
     <row r="13">
@@ -1070,7 +1086,10 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.728</v>
+        <v>0.364</v>
+      </c>
+      <c r="N16">
+        <v>0.364</v>
       </c>
     </row>
     <row r="17">
@@ -1090,19 +1109,19 @@
         </is>
       </c>
       <c r="D17">
-        <v>41.812</v>
+        <v>42.769</v>
       </c>
       <c r="E17">
-        <v>1.985</v>
+        <v>2.218</v>
       </c>
       <c r="F17">
-        <v>49.711</v>
+        <v>49.549</v>
       </c>
       <c r="G17">
-        <v>37.824</v>
+        <v>38.313</v>
       </c>
       <c r="H17">
-        <v>45.801</v>
+        <v>47.225</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1133,22 +1152,22 @@
         </is>
       </c>
       <c r="D18">
-        <v>-3.221</v>
+        <v>-4.301</v>
       </c>
       <c r="E18">
-        <v>1.744</v>
+        <v>1.908</v>
       </c>
       <c r="F18">
-        <v>45.663</v>
+        <v>45.758</v>
       </c>
       <c r="G18">
-        <v>-6.733</v>
+        <v>-8.141999999999999</v>
       </c>
       <c r="H18">
-        <v>0.291</v>
+        <v>-0.461</v>
       </c>
       <c r="I18">
-        <v>0.07099999999999999</v>
+        <v>0.029</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1172,26 +1191,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>m_1_2</t>
+          <t>sexM</t>
         </is>
       </c>
       <c r="D19">
-        <v>0.06900000000000001</v>
+        <v>2.24</v>
       </c>
       <c r="E19">
-        <v>0.348</v>
+        <v>3.797</v>
       </c>
       <c r="F19">
-        <v>49.177</v>
+        <v>47.513</v>
       </c>
       <c r="G19">
-        <v>-0.63</v>
+        <v>-5.396</v>
       </c>
       <c r="H19">
-        <v>0.768</v>
+        <v>9.875999999999999</v>
       </c>
       <c r="I19">
-        <v>0.843</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1215,26 +1234,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sexM</t>
+          <t>ifn_1_netto</t>
         </is>
       </c>
       <c r="D20">
-        <v>2.292</v>
+        <v>-0.273</v>
       </c>
       <c r="E20">
-        <v>3.819</v>
+        <v>0.663</v>
       </c>
       <c r="F20">
-        <v>47.537</v>
+        <v>49.142</v>
       </c>
       <c r="G20">
-        <v>-5.388</v>
+        <v>-1.605</v>
       </c>
       <c r="H20">
-        <v>9.972</v>
+        <v>1.058</v>
       </c>
       <c r="I20">
-        <v>0.551</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1262,22 +1281,22 @@
         </is>
       </c>
       <c r="D21">
-        <v>4.134</v>
+        <v>5.551</v>
       </c>
       <c r="E21">
-        <v>2.192</v>
+        <v>2.428</v>
       </c>
       <c r="F21">
-        <v>44.034</v>
+        <v>43.933</v>
       </c>
       <c r="G21">
-        <v>-0.284</v>
+        <v>0.658</v>
       </c>
       <c r="H21">
-        <v>8.552</v>
+        <v>10.444</v>
       </c>
       <c r="I21">
-        <v>0.066</v>
+        <v>0.027</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1301,26 +1320,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>timepointfollowup:treatcontrol:m_1_2</t>
+          <t>timepointfollowup:ifn_1_netto</t>
         </is>
       </c>
       <c r="D22">
-        <v>0.554</v>
+        <v>1.286</v>
       </c>
       <c r="E22">
-        <v>0.296</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F22">
-        <v>43.831</v>
+        <v>43.78</v>
       </c>
       <c r="G22">
-        <v>-0.043</v>
+        <v>0.163</v>
       </c>
       <c r="H22">
-        <v>1.151</v>
+        <v>2.408</v>
       </c>
       <c r="I22">
-        <v>0.068</v>
+        <v>0.026</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1344,26 +1363,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>timepointfollowup:treatexercise:m_1_2</t>
+          <t>timepointfollowup:treatexercise:ifn_1_netto</t>
         </is>
       </c>
       <c r="D23">
-        <v>0.036</v>
+        <v>-1.422</v>
       </c>
       <c r="E23">
-        <v>0.303</v>
+        <v>0.798</v>
       </c>
       <c r="F23">
-        <v>43.472</v>
+        <v>43.438</v>
       </c>
       <c r="G23">
-        <v>-0.575</v>
+        <v>-3.03</v>
       </c>
       <c r="H23">
-        <v>0.647</v>
+        <v>0.186</v>
       </c>
       <c r="I23">
-        <v>0.906</v>
+        <v>0.082</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1373,14 +1392,17 @@
       <c r="K23" t="b">
         <v>1</v>
       </c>
-      <c r="L23">
-        <v>0.906</v>
+      <c r="M23">
+        <v>0.245</v>
+      </c>
+      <c r="N23">
+        <v>0.245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SF-36 mental aggregate score</t>
+          <t>SF-36 Mental aggregate score</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1423,7 +1445,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SF-36 mental aggregate score</t>
+          <t>SF-36 Mental aggregate score</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1466,7 +1488,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SF-36 mental aggregate score</t>
+          <t>SF-36 Mental aggregate score</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1509,7 +1531,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SF-36 mental aggregate score</t>
+          <t>SF-36 Mental aggregate score</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1549,13 +1571,16 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0.906</v>
+        <v>0.889</v>
+      </c>
+      <c r="N27">
+        <v>0.889</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SF-36 mental aggregate score</t>
+          <t>SF-36 Mental aggregate score</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1569,19 +1594,19 @@
         </is>
       </c>
       <c r="D28">
-        <v>49.812</v>
+        <v>50.093</v>
       </c>
       <c r="E28">
-        <v>2.056</v>
+        <v>2.371</v>
       </c>
       <c r="F28">
-        <v>50.278</v>
+        <v>50.069</v>
       </c>
       <c r="G28">
-        <v>45.682</v>
+        <v>45.33</v>
       </c>
       <c r="H28">
-        <v>53.941</v>
+        <v>54.855</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1598,7 +1623,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SF-36 mental aggregate score</t>
+          <t>SF-36 Mental aggregate score</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1612,22 +1637,22 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.061</v>
+        <v>0.906</v>
       </c>
       <c r="E29">
-        <v>2.958</v>
+        <v>3.286</v>
       </c>
       <c r="F29">
-        <v>47.055</v>
+        <v>47.556</v>
       </c>
       <c r="G29">
-        <v>-5.889</v>
+        <v>-5.703</v>
       </c>
       <c r="H29">
-        <v>6.011</v>
+        <v>7.514</v>
       </c>
       <c r="I29">
-        <v>0.984</v>
+        <v>0.784</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1641,7 +1666,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SF-36 mental aggregate score</t>
+          <t>SF-36 Mental aggregate score</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1651,26 +1676,26 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>m_1_2</t>
+          <t>sexM</t>
         </is>
       </c>
       <c r="D30">
-        <v>-1.215</v>
+        <v>4.857</v>
       </c>
       <c r="E30">
-        <v>0.361</v>
+        <v>3.895</v>
       </c>
       <c r="F30">
-        <v>49.302</v>
+        <v>45.949</v>
       </c>
       <c r="G30">
-        <v>-1.942</v>
+        <v>-2.983</v>
       </c>
       <c r="H30">
-        <v>-0.489</v>
+        <v>12.697</v>
       </c>
       <c r="I30">
-        <v>0.001</v>
+        <v>0.219</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1684,7 +1709,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SF-36 mental aggregate score</t>
+          <t>SF-36 Mental aggregate score</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1694,26 +1719,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sexM</t>
+          <t>ifn_1_netto</t>
         </is>
       </c>
       <c r="D31">
-        <v>4.304</v>
+        <v>-1.977</v>
       </c>
       <c r="E31">
-        <v>3.83</v>
+        <v>0.711</v>
       </c>
       <c r="F31">
-        <v>46.02</v>
+        <v>49.254</v>
       </c>
       <c r="G31">
-        <v>-3.406</v>
+        <v>-3.405</v>
       </c>
       <c r="H31">
-        <v>12.014</v>
+        <v>-0.549</v>
       </c>
       <c r="I31">
-        <v>0.267</v>
+        <v>0.008</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1727,7 +1752,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SF-36 mental aggregate score</t>
+          <t>SF-36 Mental aggregate score</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1741,22 +1766,22 @@
         </is>
       </c>
       <c r="D32">
-        <v>-0.806</v>
+        <v>-1.519</v>
       </c>
       <c r="E32">
-        <v>3.662</v>
+        <v>4.095</v>
       </c>
       <c r="F32">
-        <v>44.058</v>
+        <v>43.904</v>
       </c>
       <c r="G32">
-        <v>-8.185</v>
+        <v>-9.773</v>
       </c>
       <c r="H32">
-        <v>6.573</v>
+        <v>6.736</v>
       </c>
       <c r="I32">
-        <v>0.827</v>
+        <v>0.713</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1770,7 +1795,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SF-36 mental aggregate score</t>
+          <t>SF-36 Mental aggregate score</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1780,26 +1805,26 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>timepointfollowup:treatcontrol:m_1_2</t>
+          <t>timepointfollowup:ifn_1_netto</t>
         </is>
       </c>
       <c r="D33">
-        <v>0.251</v>
+        <v>0.059</v>
       </c>
       <c r="E33">
-        <v>0.498</v>
+        <v>0.951</v>
       </c>
       <c r="F33">
-        <v>45.928</v>
+        <v>46.289</v>
       </c>
       <c r="G33">
-        <v>-0.752</v>
+        <v>-1.854</v>
       </c>
       <c r="H33">
-        <v>1.254</v>
+        <v>1.973</v>
       </c>
       <c r="I33">
-        <v>0.616</v>
+        <v>0.951</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1813,7 +1838,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SF-36 mental aggregate score</t>
+          <t>SF-36 Mental aggregate score</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1823,26 +1848,26 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>timepointfollowup:treatexercise:m_1_2</t>
+          <t>timepointfollowup:treatexercise:ifn_1_netto</t>
         </is>
       </c>
       <c r="D34">
-        <v>0.365</v>
+        <v>0.419</v>
       </c>
       <c r="E34">
-        <v>0.505</v>
+        <v>1.305</v>
       </c>
       <c r="F34">
-        <v>46.964</v>
+        <v>43.386</v>
       </c>
       <c r="G34">
-        <v>-0.65</v>
+        <v>-2.212</v>
       </c>
       <c r="H34">
-        <v>1.381</v>
+        <v>3.051</v>
       </c>
       <c r="I34">
-        <v>0.473</v>
+        <v>0.75</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1852,8 +1877,11 @@
       <c r="K34" t="b">
         <v>1</v>
       </c>
-      <c r="L34">
-        <v>0.906</v>
+      <c r="M34">
+        <v>0.945</v>
+      </c>
+      <c r="N34">
+        <v>0.945</v>
       </c>
     </row>
   </sheetData>
